--- a/business/20200525.xlsx
+++ b/business/20200525.xlsx
@@ -195,15 +195,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -215,6 +206,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,7 +488,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -499,296 +499,296 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="21.5546875" customWidth="1"/>
     <col min="2" max="5" width="9"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="5">
         <v>43976</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="15.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>90</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>90</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="15.6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>150</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>150</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="15.6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>40</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>40</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="15.6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>36</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>36</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="15.6">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>128</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>125</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="15.6">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>125</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>125</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="15.6">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>6</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="15.6">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>4</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="15.6">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="15.6">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
         <f>SUM(B2:B10)</f>
         <v>585</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
         <f>SUM(D2:D10)</f>
         <v>582</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="15.6">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="15.6">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="1">
         <v>659.5</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="15.6">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="15.6">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1">
         <f>SUM(B14:B14)</f>
         <v>659.5</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="15.6">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.6">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1">
         <f>B16-B12</f>
         <v>74.5</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
         <f>B16-D12</f>
         <v>77.5</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="6">
+      <c r="E18" s="1"/>
+      <c r="F18" s="3">
         <v>43976</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.6">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
